--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Sema3e-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3e</t>
+  </si>
+  <si>
+    <t>Plxnd1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Sema3e</t>
-  </si>
-  <si>
-    <t>Plxnd1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03595566666666666</v>
+        <v>1.375637</v>
       </c>
       <c r="H2">
-        <v>0.107867</v>
+        <v>4.126911</v>
       </c>
       <c r="I2">
-        <v>0.01609691666901703</v>
+        <v>0.6259315995346741</v>
       </c>
       <c r="J2">
-        <v>0.01609691666901703</v>
+        <v>0.6259315995346741</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>73.19890333333333</v>
+        <v>74.98881166666666</v>
       </c>
       <c r="N2">
-        <v>219.59671</v>
+        <v>224.966435</v>
       </c>
       <c r="O2">
-        <v>0.6596328743217018</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="P2">
-        <v>0.6596328743217019</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="Q2">
-        <v>2.631915368618889</v>
+        <v>103.1573839146983</v>
       </c>
       <c r="R2">
-        <v>23.68723831757</v>
+        <v>928.4164552322849</v>
       </c>
       <c r="S2">
-        <v>0.01061805541010061</v>
+        <v>0.4162669060020351</v>
       </c>
       <c r="T2">
-        <v>0.01061805541010062</v>
+        <v>0.4162669060020351</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03595566666666666</v>
+        <v>1.375637</v>
       </c>
       <c r="H3">
-        <v>0.107867</v>
+        <v>4.126911</v>
       </c>
       <c r="I3">
-        <v>0.01609691666901703</v>
+        <v>0.6259315995346741</v>
       </c>
       <c r="J3">
-        <v>0.01609691666901703</v>
+        <v>0.6259315995346741</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>9.661646333333334</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N3">
         <v>28.984939</v>
       </c>
       <c r="O3">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056159</v>
       </c>
       <c r="P3">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056158</v>
       </c>
       <c r="Q3">
-        <v>0.3473909350125555</v>
+        <v>13.29091817704767</v>
       </c>
       <c r="R3">
-        <v>3.126518415113</v>
+        <v>119.618263593429</v>
       </c>
       <c r="S3">
-        <v>0.001401494987608814</v>
+        <v>0.0536323157638504</v>
       </c>
       <c r="T3">
-        <v>0.001401494987608814</v>
+        <v>0.05363231576385039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03595566666666666</v>
+        <v>1.375637</v>
       </c>
       <c r="H4">
-        <v>0.107867</v>
+        <v>4.126911</v>
       </c>
       <c r="I4">
-        <v>0.01609691666901703</v>
+        <v>0.6259315995346741</v>
       </c>
       <c r="J4">
-        <v>0.01609691666901703</v>
+        <v>0.6259315995346741</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.10860633333334</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N4">
-        <v>84.32581900000001</v>
+        <v>84.325819</v>
       </c>
       <c r="O4">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="P4">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="Q4">
-        <v>1.010663679785889</v>
+        <v>38.66723889056766</v>
       </c>
       <c r="R4">
-        <v>9.095973118073001</v>
+        <v>348.0051500151089</v>
       </c>
       <c r="S4">
-        <v>0.004077366271307595</v>
+        <v>0.1560323777687886</v>
       </c>
       <c r="T4">
-        <v>0.004077366271307596</v>
+        <v>0.1560323777687886</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.375637</v>
+        <v>0.8221063333333333</v>
       </c>
       <c r="H5">
-        <v>4.126911</v>
+        <v>2.466319</v>
       </c>
       <c r="I5">
-        <v>0.61585603073646</v>
+        <v>0.3740684004653257</v>
       </c>
       <c r="J5">
-        <v>0.61585603073646</v>
+        <v>0.3740684004653258</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>73.19890333333333</v>
+        <v>74.98881166666666</v>
       </c>
       <c r="N5">
-        <v>219.59671</v>
+        <v>224.966435</v>
       </c>
       <c r="O5">
-        <v>0.6596328743217018</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="P5">
-        <v>0.6596328743217019</v>
+        <v>0.6650357743745379</v>
       </c>
       <c r="Q5">
-        <v>100.6951197847567</v>
+        <v>61.64877700030721</v>
       </c>
       <c r="R5">
-        <v>906.2560780628099</v>
+        <v>554.8389930027649</v>
       </c>
       <c r="S5">
-        <v>0.4062388837230455</v>
+        <v>0.2487688683725026</v>
       </c>
       <c r="T5">
-        <v>0.4062388837230455</v>
+        <v>0.2487688683725027</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.375637</v>
+        <v>0.8221063333333333</v>
       </c>
       <c r="H6">
-        <v>4.126911</v>
+        <v>2.466319</v>
       </c>
       <c r="I6">
-        <v>0.61585603073646</v>
+        <v>0.3740684004653257</v>
       </c>
       <c r="J6">
-        <v>0.61585603073646</v>
+        <v>0.3740684004653258</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.661646333333334</v>
+        <v>9.661646333333335</v>
       </c>
       <c r="N6">
         <v>28.984939</v>
       </c>
       <c r="O6">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056159</v>
       </c>
       <c r="P6">
-        <v>0.08706605224007771</v>
+        <v>0.08568398816056158</v>
       </c>
       <c r="Q6">
-        <v>13.29091817704767</v>
+        <v>7.942900641060112</v>
       </c>
       <c r="R6">
-        <v>119.618263593429</v>
+        <v>71.48610576954101</v>
       </c>
       <c r="S6">
-        <v>0.05362015334446753</v>
+        <v>0.03205167239671118</v>
       </c>
       <c r="T6">
-        <v>0.05362015334446753</v>
+        <v>0.03205167239671118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.375637</v>
+        <v>0.8221063333333333</v>
       </c>
       <c r="H7">
-        <v>4.126911</v>
+        <v>2.466319</v>
       </c>
       <c r="I7">
-        <v>0.61585603073646</v>
+        <v>0.3740684004653257</v>
       </c>
       <c r="J7">
-        <v>0.61585603073646</v>
+        <v>0.3740684004653258</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.10860633333334</v>
+        <v>28.10860633333333</v>
       </c>
       <c r="N7">
-        <v>84.32581900000001</v>
+        <v>84.325819</v>
       </c>
       <c r="O7">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="P7">
-        <v>0.2533010734382204</v>
+        <v>0.2492802374649006</v>
       </c>
       <c r="Q7">
-        <v>38.66723889056767</v>
+        <v>23.10826328780677</v>
       </c>
       <c r="R7">
-        <v>348.005150015109</v>
+        <v>207.974369590261</v>
       </c>
       <c r="S7">
-        <v>0.155996993668947</v>
+        <v>0.09324785969611192</v>
       </c>
       <c r="T7">
-        <v>0.155996993668947</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.8221063333333335</v>
-      </c>
-      <c r="H8">
-        <v>2.466319</v>
-      </c>
-      <c r="I8">
-        <v>0.368047052594523</v>
-      </c>
-      <c r="J8">
-        <v>0.368047052594523</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>73.19890333333333</v>
-      </c>
-      <c r="N8">
-        <v>219.59671</v>
-      </c>
-      <c r="O8">
-        <v>0.6596328743217018</v>
-      </c>
-      <c r="P8">
-        <v>0.6596328743217019</v>
-      </c>
-      <c r="Q8">
-        <v>60.17728202338779</v>
-      </c>
-      <c r="R8">
-        <v>541.5955382104901</v>
-      </c>
-      <c r="S8">
-        <v>0.2427759351885558</v>
-      </c>
-      <c r="T8">
-        <v>0.2427759351885558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.8221063333333335</v>
-      </c>
-      <c r="H9">
-        <v>2.466319</v>
-      </c>
-      <c r="I9">
-        <v>0.368047052594523</v>
-      </c>
-      <c r="J9">
-        <v>0.368047052594523</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.661646333333334</v>
-      </c>
-      <c r="N9">
-        <v>28.984939</v>
-      </c>
-      <c r="O9">
-        <v>0.08706605224007771</v>
-      </c>
-      <c r="P9">
-        <v>0.08706605224007771</v>
-      </c>
-      <c r="Q9">
-        <v>7.942900641060113</v>
-      </c>
-      <c r="R9">
-        <v>71.48610576954101</v>
-      </c>
-      <c r="S9">
-        <v>0.03204440390800137</v>
-      </c>
-      <c r="T9">
-        <v>0.03204440390800137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.8221063333333335</v>
-      </c>
-      <c r="H10">
-        <v>2.466319</v>
-      </c>
-      <c r="I10">
-        <v>0.368047052594523</v>
-      </c>
-      <c r="J10">
-        <v>0.368047052594523</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>28.10860633333334</v>
-      </c>
-      <c r="N10">
-        <v>84.32581900000001</v>
-      </c>
-      <c r="O10">
-        <v>0.2533010734382204</v>
-      </c>
-      <c r="P10">
-        <v>0.2533010734382204</v>
-      </c>
-      <c r="Q10">
-        <v>23.10826328780679</v>
-      </c>
-      <c r="R10">
-        <v>207.9743695902611</v>
-      </c>
-      <c r="S10">
-        <v>0.09322671349796584</v>
-      </c>
-      <c r="T10">
-        <v>0.09322671349796584</v>
+        <v>0.09324785969611193</v>
       </c>
     </row>
   </sheetData>
